--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنا محمد احمد على احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANA MOHAMED AHMED ALI AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1240219</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1076,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45919.4776015856</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Sameh Thabet Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240285</x:t>
   </x:si>
   <x:si>
@@ -186,6 +195,15 @@
     <x:t>Ali Hassan Ali Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250182</x:t>
   </x:si>
   <x:si>
@@ -337,6 +355,15 @@
   </x:si>
   <x:si>
     <x:t>Youanna Girgis Abdou Hendy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -470,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -893,7 +920,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45919.9982841088</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -925,7 +952,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -957,7 +984,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -989,7 +1016,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1021,7 +1048,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1053,7 +1080,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1085,7 +1112,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.4776015856</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1117,7 +1144,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45919.4776015856</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1149,7 +1176,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2025,102 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45919.9698933218</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -497,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2072,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2104,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2121,6 +2130,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed fahmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>4250212</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1793,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45922.7243046296</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Maher Mohammed Fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايفى عماد مملوك فخرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maive Emad Mamlouk Fakhry</x:t>
   </x:si>
   <x:si>
     <x:t>1230096</x:t>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1770,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.7243046296</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45922.7243046296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2186,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2203,6 +2212,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240285</x:t>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -979,7 +988,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1011,7 +1020,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1043,7 +1052,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1075,7 +1084,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1107,7 +1116,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1139,7 +1148,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1171,7 +1180,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.4776015856</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1203,7 +1212,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45919.4776015856</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1235,7 +1244,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1331,7 +1340,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1363,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1404,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1660,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.7243046296</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45922.7243046296</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2227,7 +2236,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2244,6 +2253,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240285</x:t>
   </x:si>
   <x:si>
@@ -310,6 +301,12 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
   </x:si>
   <x:si>
     <x:t>4250212</x:t>
@@ -988,7 +985,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1020,7 +1017,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1052,7 +1049,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1084,7 +1081,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1116,7 +1113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1148,7 +1145,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1177,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45919.4776015856</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1209,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.4776015856</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1241,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1273,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1305,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1337,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1369,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1401,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1433,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1465,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1497,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1529,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1561,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1593,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1625,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1657,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1689,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1721,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1753,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1785,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1817,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1849,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45922.7243046296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1880,11 +1877,9 @@
       <x:c r="C32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45922.7243046296</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,13 +1902,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45917.3417125</x:v>
@@ -1939,13 +1934,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6648720718</x:v>
@@ -1971,16 +1966,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45927.435037581</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,13 +1998,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.415737581</x:v>
@@ -2035,13 +2030,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6648476505</x:v>
@@ -2067,13 +2062,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.4194505787</x:v>
@@ -2099,13 +2094,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.664794213</x:v>
@@ -2131,13 +2126,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.6658591782</x:v>
@@ -2163,13 +2158,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45919.9698933218</x:v>
@@ -2195,13 +2190,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45921.9223017014</x:v>
@@ -2227,13 +2222,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45917.311553206</x:v>
@@ -2259,13 +2254,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45916.2379621181</x:v>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -1975,7 +1975,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.435037581</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240285</x:t>
   </x:si>
   <x:si>
@@ -67,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Hani Al-Sayed Mohamed Shaheen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1230312</x:t>
@@ -530,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -985,7 +1003,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45929.3008427431</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1017,7 +1035,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1049,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1081,7 +1099,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45929.5744521181</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1113,7 +1131,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1145,7 +1163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1177,7 +1195,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.4776015856</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1209,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1241,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45919.4776015856</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1273,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1305,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1337,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1369,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1401,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1433,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1465,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1497,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1529,7 +1547,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1689,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1721,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1753,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1785,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1817,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1849,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.7243046296</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1877,9 +1895,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1902,16 +1922,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45922.7243046296</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1934,16 +1954,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
+      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2298,70 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -324,7 +324,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250212</x:t>
@@ -1959,7 +1962,9 @@
       <x:c r="C34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
       <x:c r="E34" s="3">
         <x:v>45927.4720945602</x:v>
       </x:c>
@@ -1984,13 +1989,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45917.3417125</x:v>
@@ -2016,13 +2021,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.6648720718</x:v>
@@ -2048,13 +2053,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45928.9745405093</x:v>
@@ -2080,13 +2085,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.415737581</x:v>
@@ -2112,13 +2117,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.6648476505</x:v>
@@ -2144,13 +2149,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.4194505787</x:v>
@@ -2176,13 +2181,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.664794213</x:v>
@@ -2208,13 +2213,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6658591782</x:v>
@@ -2240,13 +2245,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45919.9698933218</x:v>
@@ -2272,13 +2277,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45921.9223017014</x:v>
@@ -2304,13 +2309,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45917.311553206</x:v>
@@ -2336,13 +2341,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45916.2379621181</x:v>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -210,7 +210,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4250181</x:t>
@@ -372,7 +372,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1220149</x:t>

--- a/downloaded_files/EPES201_Lecture-35526.xlsx
+++ b/downloaded_files/EPES201_Lecture-35526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed fahmy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>4240046</x:t>
@@ -551,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1934,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.7243046296</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2309,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45916.2379621181</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2335,38 +2326,6 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45916.2379621181</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
